--- a/工作簿1.xlsx
+++ b/工作簿1.xlsx
@@ -32,14 +32,15 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="1"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -53,7 +54,14 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -66,10 +74,26 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="15"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -85,15 +109,7 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -113,26 +129,10 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -147,7 +147,7 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -155,14 +155,7 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -173,6 +166,13 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -195,19 +195,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -219,85 +243,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,67 +369,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,11 +422,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -446,26 +452,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,17 +476,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,11 +513,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,10 +547,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -559,137 +559,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="10" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="10" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -711,6 +711,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1101,42 +1107,42 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP31"/>
+  <dimension ref="A1:AP40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10" defaultRowHeight="15.6" outlineLevelCol="0"/>
   <cols>
-    <col width="13.1944444444444" customWidth="1" style="1" min="1" max="1"/>
-    <col width="13.0555555555556" customWidth="1" style="1" min="2" max="2"/>
-    <col width="10" customWidth="1" style="1" min="3" max="10"/>
-    <col width="7.91666666666667" customWidth="1" style="1" min="11" max="11"/>
-    <col width="10" customWidth="1" style="1" min="12" max="13"/>
-    <col width="11.8888888888889" customWidth="1" style="1" min="14" max="14"/>
-    <col width="10" customWidth="1" style="1" min="15" max="15"/>
-    <col width="6.66666666666667" customWidth="1" style="1" min="16" max="16"/>
-    <col width="10" customWidth="1" style="1" min="17" max="22"/>
-    <col width="7.36111111111111" customWidth="1" style="1" min="23" max="23"/>
-    <col width="10" customWidth="1" style="1" min="24" max="27"/>
-    <col width="6.38888888888889" customWidth="1" style="1" min="28" max="28"/>
-    <col width="10" customWidth="1" style="1" min="29" max="33"/>
-    <col width="7.36111111111111" customWidth="1" style="1" min="34" max="34"/>
-    <col width="10" customWidth="1" style="1" min="35" max="38"/>
-    <col width="6.94444444444444" customWidth="1" style="1" min="39" max="39"/>
-    <col width="14.4444444444444" customWidth="1" style="1" min="40" max="40"/>
-    <col width="10" customWidth="1" style="1" min="41" max="16384"/>
+    <col width="13.1944444444444" customWidth="1" style="8" min="1" max="1"/>
+    <col width="13.0555555555556" customWidth="1" style="8" min="2" max="2"/>
+    <col width="10" customWidth="1" style="8" min="3" max="10"/>
+    <col width="7.91666666666667" customWidth="1" style="8" min="11" max="11"/>
+    <col width="10" customWidth="1" style="8" min="12" max="13"/>
+    <col width="11.8888888888889" customWidth="1" style="8" min="14" max="14"/>
+    <col width="10" customWidth="1" style="8" min="15" max="15"/>
+    <col width="6.66666666666667" customWidth="1" style="8" min="16" max="16"/>
+    <col width="10" customWidth="1" style="8" min="17" max="22"/>
+    <col width="7.36111111111111" customWidth="1" style="8" min="23" max="23"/>
+    <col width="10" customWidth="1" style="8" min="24" max="27"/>
+    <col width="6.38888888888889" customWidth="1" style="8" min="28" max="28"/>
+    <col width="10" customWidth="1" style="8" min="29" max="33"/>
+    <col width="7.36111111111111" customWidth="1" style="8" min="34" max="34"/>
+    <col width="10" customWidth="1" style="8" min="35" max="38"/>
+    <col width="6.94444444444444" customWidth="1" style="8" min="39" max="39"/>
+    <col width="14.4444444444444" customWidth="1" style="8" min="40" max="40"/>
+    <col width="10" customWidth="1" style="8" min="41" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="1" customFormat="1" s="8">
+      <c r="A1" s="8" t="inlineStr">
         <is>
           <t>取引先マスタ再鑑結果</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="25" customFormat="1" customHeight="1" s="1">
+    <row r="2" ht="25" customFormat="1" customHeight="1" s="8">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>再鑑日付</t>
@@ -1148,7 +1154,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customFormat="1" customHeight="1" s="1">
+    <row r="3" ht="15" customFormat="1" customHeight="1" s="8">
       <c r="A3" s="3" t="n">
         <v>44760</v>
       </c>
@@ -1159,14 +1165,14 @@
       </c>
     </row>
     <row r="4"/>
-    <row r="5" customFormat="1" s="1">
-      <c r="A5" s="1" t="inlineStr">
+    <row r="5" customFormat="1" s="8">
+      <c r="A5" s="8" t="inlineStr">
         <is>
           <t>①申請書とSAP取引先マスタの比較</t>
         </is>
       </c>
     </row>
-    <row r="6" customFormat="1" s="1">
+    <row r="6" customFormat="1" s="8">
       <c r="A6" s="5" t="n"/>
       <c r="B6" s="5" t="inlineStr">
         <is>
@@ -1186,7 +1192,7 @@
       <c r="M6" s="6" t="n"/>
       <c r="N6" s="6" t="n"/>
       <c r="O6" s="6" t="n"/>
-      <c r="P6" s="8" t="n"/>
+      <c r="P6" s="10" t="n"/>
       <c r="Q6" s="5" t="inlineStr">
         <is>
           <t>SAP仕入先一覧</t>
@@ -1202,7 +1208,7 @@
       <c r="Y6" s="6" t="n"/>
       <c r="Z6" s="6" t="n"/>
       <c r="AA6" s="6" t="n"/>
-      <c r="AB6" s="8" t="n"/>
+      <c r="AB6" s="10" t="n"/>
       <c r="AC6" s="5" t="inlineStr">
         <is>
           <t>相違箇所自動判定</t>
@@ -1218,7 +1224,7 @@
       <c r="AK6" s="6" t="n"/>
       <c r="AL6" s="6" t="n"/>
       <c r="AM6" s="6" t="n"/>
-      <c r="AN6" s="8" t="n"/>
+      <c r="AN6" s="10" t="n"/>
       <c r="AO6" s="5" t="inlineStr">
         <is>
           <t>再鑑者コメント</t>
@@ -1226,7 +1232,7 @@
       </c>
       <c r="AP6" s="5" t="n"/>
     </row>
-    <row r="7" customFormat="1" s="1">
+    <row r="7" customFormat="1" s="8">
       <c r="A7" s="5" t="inlineStr">
         <is>
           <t>申請番号</t>
@@ -1434,7 +1440,7 @@
       </c>
       <c r="AP7" s="5" t="n"/>
     </row>
-    <row r="8" customFormat="1" s="1">
+    <row r="8" customFormat="1" s="8">
       <c r="A8" s="7" t="n">
         <v>1</v>
       </c>
@@ -1453,7 +1459,7 @@
       <c r="J8" s="7" t="n"/>
       <c r="K8" s="7" t="n"/>
       <c r="L8" s="7" t="n"/>
-      <c r="M8" s="9" t="inlineStr">
+      <c r="M8" s="11" t="inlineStr">
         <is>
           <t>02</t>
         </is>
@@ -1473,7 +1479,7 @@
       <c r="V8" s="7" t="n"/>
       <c r="W8" s="7" t="n"/>
       <c r="X8" s="7" t="n"/>
-      <c r="Y8" s="9" t="inlineStr">
+      <c r="Y8" s="11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -1505,9 +1511,9 @@
           <t>株式会社₌(株);2₌02</t>
         </is>
       </c>
-      <c r="AP8" s="8" t="n"/>
-    </row>
-    <row r="9" customFormat="1" s="1">
+      <c r="AP8" s="10" t="n"/>
+    </row>
+    <row r="9" customFormat="1" s="8">
       <c r="A9" s="7" t="n">
         <v>2</v>
       </c>
@@ -1522,7 +1528,7 @@
       <c r="J9" s="7" t="n"/>
       <c r="K9" s="7" t="n"/>
       <c r="L9" s="7" t="n"/>
-      <c r="M9" s="9" t="n">
+      <c r="M9" s="11" t="n">
         <v>1</v>
       </c>
       <c r="N9" s="7" t="n"/>
@@ -1536,7 +1542,7 @@
       <c r="V9" s="7" t="n"/>
       <c r="W9" s="7" t="n"/>
       <c r="X9" s="7" t="n"/>
-      <c r="Y9" s="9" t="inlineStr">
+      <c r="Y9" s="11" t="inlineStr">
         <is>
           <t>01</t>
         </is>
@@ -1565,9 +1571,9 @@
           <t>01₌1</t>
         </is>
       </c>
-      <c r="AP9" s="8" t="n"/>
-    </row>
-    <row r="10" customFormat="1" s="1">
+      <c r="AP9" s="10" t="n"/>
+    </row>
+    <row r="10" customFormat="1" s="8">
       <c r="A10" s="7" t="n">
         <v>3</v>
       </c>
@@ -1627,9 +1633,9 @@
           <t>スペースがある</t>
         </is>
       </c>
-      <c r="AP10" s="8" t="n"/>
-    </row>
-    <row r="11" customFormat="1" s="1">
+      <c r="AP10" s="10" t="n"/>
+    </row>
+    <row r="11" customFormat="1" s="8">
       <c r="A11" s="7" t="n">
         <v>4</v>
       </c>
@@ -1645,7 +1651,7 @@
       <c r="K11" s="7" t="n"/>
       <c r="L11" s="7" t="n"/>
       <c r="M11" s="7" t="n"/>
-      <c r="N11" s="9" t="inlineStr">
+      <c r="N11" s="11" t="inlineStr">
         <is>
           <t>058897</t>
         </is>
@@ -1687,9 +1693,9 @@
           <t>58897₌058897</t>
         </is>
       </c>
-      <c r="AP11" s="8" t="n"/>
-    </row>
-    <row r="12" customFormat="1" s="1">
+      <c r="AP11" s="10" t="n"/>
+    </row>
+    <row r="12" customFormat="1" s="8">
       <c r="A12" s="7" t="n"/>
       <c r="B12" s="7" t="n"/>
       <c r="C12" s="7" t="n"/>
@@ -1731,9 +1737,9 @@
       <c r="AM12" s="7" t="n"/>
       <c r="AN12" s="7" t="n"/>
       <c r="AO12" s="4" t="n"/>
-      <c r="AP12" s="8" t="n"/>
-    </row>
-    <row r="13" customFormat="1" s="1">
+      <c r="AP12" s="10" t="n"/>
+    </row>
+    <row r="13" customFormat="1" s="8">
       <c r="A13" s="7" t="n"/>
       <c r="B13" s="7" t="n"/>
       <c r="C13" s="7" t="n"/>
@@ -1775,9 +1781,9 @@
       <c r="AM13" s="7" t="n"/>
       <c r="AN13" s="7" t="n"/>
       <c r="AO13" s="4" t="n"/>
-      <c r="AP13" s="8" t="n"/>
-    </row>
-    <row r="14" customFormat="1" s="1">
+      <c r="AP13" s="10" t="n"/>
+    </row>
+    <row r="14" customFormat="1" s="8">
       <c r="A14" s="7" t="n"/>
       <c r="B14" s="7" t="n"/>
       <c r="C14" s="7" t="n"/>
@@ -1819,9 +1825,9 @@
       <c r="AM14" s="7" t="n"/>
       <c r="AN14" s="7" t="n"/>
       <c r="AO14" s="4" t="n"/>
-      <c r="AP14" s="8" t="n"/>
-    </row>
-    <row r="15" customFormat="1" s="1">
+      <c r="AP14" s="10" t="n"/>
+    </row>
+    <row r="15" customFormat="1" s="8">
       <c r="A15" s="7" t="n"/>
       <c r="B15" s="7" t="n"/>
       <c r="C15" s="7" t="n"/>
@@ -1863,9 +1869,9 @@
       <c r="AM15" s="7" t="n"/>
       <c r="AN15" s="7" t="n"/>
       <c r="AO15" s="4" t="n"/>
-      <c r="AP15" s="8" t="n"/>
-    </row>
-    <row r="16" customFormat="1" s="1">
+      <c r="AP15" s="10" t="n"/>
+    </row>
+    <row r="16" customFormat="1" s="8">
       <c r="A16" s="7" t="n"/>
       <c r="B16" s="7" t="n"/>
       <c r="C16" s="7" t="n"/>
@@ -1907,9 +1913,9 @@
       <c r="AM16" s="7" t="n"/>
       <c r="AN16" s="7" t="n"/>
       <c r="AO16" s="4" t="n"/>
-      <c r="AP16" s="8" t="n"/>
-    </row>
-    <row r="17" customFormat="1" s="1">
+      <c r="AP16" s="10" t="n"/>
+    </row>
+    <row r="17" customFormat="1" s="8">
       <c r="A17" s="7" t="n"/>
       <c r="B17" s="7" t="n"/>
       <c r="C17" s="7" t="n"/>
@@ -1951,9 +1957,9 @@
       <c r="AM17" s="7" t="n"/>
       <c r="AN17" s="7" t="n"/>
       <c r="AO17" s="4" t="n"/>
-      <c r="AP17" s="8" t="n"/>
-    </row>
-    <row r="18" customFormat="1" s="1">
+      <c r="AP17" s="10" t="n"/>
+    </row>
+    <row r="18" customFormat="1" s="8">
       <c r="A18" s="7" t="n"/>
       <c r="B18" s="7" t="n"/>
       <c r="C18" s="7" t="n"/>
@@ -1995,9 +2001,9 @@
       <c r="AM18" s="7" t="n"/>
       <c r="AN18" s="7" t="n"/>
       <c r="AO18" s="4" t="n"/>
-      <c r="AP18" s="8" t="n"/>
-    </row>
-    <row r="19" customFormat="1" s="1">
+      <c r="AP18" s="10" t="n"/>
+    </row>
+    <row r="19" customFormat="1" s="8">
       <c r="A19" s="7" t="n"/>
       <c r="B19" s="7" t="n"/>
       <c r="C19" s="7" t="n"/>
@@ -2039,9 +2045,9 @@
       <c r="AM19" s="7" t="n"/>
       <c r="AN19" s="7" t="n"/>
       <c r="AO19" s="4" t="n"/>
-      <c r="AP19" s="8" t="n"/>
-    </row>
-    <row r="20" customFormat="1" s="1">
+      <c r="AP19" s="10" t="n"/>
+    </row>
+    <row r="20" customFormat="1" s="8">
       <c r="A20" s="7" t="n"/>
       <c r="B20" s="7" t="n"/>
       <c r="C20" s="7" t="n"/>
@@ -2083,16 +2089,25 @@
       <c r="AM20" s="7" t="n"/>
       <c r="AN20" s="7" t="n"/>
       <c r="AO20" s="4" t="n"/>
-      <c r="AP20" s="8" t="n"/>
-    </row>
-    <row r="30" customFormat="1" s="1">
-      <c r="A30" s="1" t="inlineStr">
+      <c r="AP20" s="10" t="n"/>
+    </row>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24"/>
+    <row r="25"/>
+    <row r="26"/>
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29"/>
+    <row r="30" customFormat="1" s="8">
+      <c r="A30" s="8" t="inlineStr">
         <is>
           <t>②本日が更新日の取引先の申請件数</t>
         </is>
       </c>
     </row>
-    <row r="31" customFormat="1" s="1">
+    <row r="31" customFormat="1" s="8">
       <c r="A31" s="5" t="inlineStr">
         <is>
           <t>仕入先</t>
@@ -2104,6 +2119,107 @@
         </is>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" s="8" t="n">
+        <v>1133782400</v>
+      </c>
+      <c r="B32" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>保留の件を処理したケース</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="8" t="n">
+        <v>1134114500</v>
+      </c>
+      <c r="B33" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>当日で、同じ取引先コードを不同申請書で申請された</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="8" t="n">
+        <v>1101506600</v>
+      </c>
+      <c r="B34" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="8" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="8" t="n">
+        <v>1101506601</v>
+      </c>
+      <c r="B35" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>申請書通りに取引先名を変更する場合、枝番の取引先名も変更した</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="8" t="n">
+        <v>1101506602</v>
+      </c>
+      <c r="B36" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>申請書通りに取引先名を変更する場合、枝番の取引先名も変更した</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="8" t="n">
+        <v>1133887700</v>
+      </c>
+      <c r="B37" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>変更の指示に基づき処理したケース（依頼元：経理課　山中さん）</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="8" t="n">
+        <v>1200686600</v>
+      </c>
+      <c r="B38" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>申請書依頼の指示に基づき処理したケース（一回目処理しますが、チェックする時、問題あり否認します）</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="8" t="n">
+        <v>1200795700</v>
+      </c>
+      <c r="B39" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>申請書依頼の指示に基づき処理したケース（一回目処理しますが、チェックする時、問題あり保留します）</t>
+        </is>
+      </c>
+    </row>
+    <row r="40"/>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="B6:P6"/>

--- a/工作簿1.xlsx
+++ b/工作簿1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="26148" windowHeight="13020" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="26148" windowHeight="13620" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="再鑑結果" sheetId="1" state="visible" r:id="rId1"/>
@@ -32,8 +32,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -47,27 +46,6 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color rgb="FF9C0006"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -75,24 +53,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -106,10 +67,18 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="13"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -129,6 +98,14 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
@@ -137,8 +114,39 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -154,8 +162,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -166,13 +173,6 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -195,13 +195,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -213,7 +273,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -225,19 +321,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,19 +333,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,103 +345,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,21 +423,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -453,25 +438,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,11 +463,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,6 +512,17 @@
       <left/>
       <right/>
       <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom/>
@@ -547,10 +547,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -559,137 +559,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="10" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -710,9 +710,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1109,40 +1106,40 @@
   </sheetPr>
   <dimension ref="A1:AP40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AO11" sqref="AO11:AP11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10" defaultRowHeight="15.6" outlineLevelCol="0"/>
   <cols>
-    <col width="13.1944444444444" customWidth="1" style="8" min="1" max="1"/>
-    <col width="13.0555555555556" customWidth="1" style="8" min="2" max="2"/>
-    <col width="10" customWidth="1" style="8" min="3" max="10"/>
-    <col width="7.91666666666667" customWidth="1" style="8" min="11" max="11"/>
-    <col width="10" customWidth="1" style="8" min="12" max="13"/>
-    <col width="11.8888888888889" customWidth="1" style="8" min="14" max="14"/>
-    <col width="10" customWidth="1" style="8" min="15" max="15"/>
-    <col width="6.66666666666667" customWidth="1" style="8" min="16" max="16"/>
-    <col width="10" customWidth="1" style="8" min="17" max="22"/>
-    <col width="7.36111111111111" customWidth="1" style="8" min="23" max="23"/>
-    <col width="10" customWidth="1" style="8" min="24" max="27"/>
-    <col width="6.38888888888889" customWidth="1" style="8" min="28" max="28"/>
-    <col width="10" customWidth="1" style="8" min="29" max="33"/>
-    <col width="7.36111111111111" customWidth="1" style="8" min="34" max="34"/>
-    <col width="10" customWidth="1" style="8" min="35" max="38"/>
-    <col width="6.94444444444444" customWidth="1" style="8" min="39" max="39"/>
-    <col width="14.4444444444444" customWidth="1" style="8" min="40" max="40"/>
-    <col width="10" customWidth="1" style="8" min="41" max="16384"/>
+    <col width="13.1944444444444" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13.0555555555556" customWidth="1" style="1" min="2" max="2"/>
+    <col width="10" customWidth="1" style="1" min="3" max="10"/>
+    <col width="7.91666666666667" customWidth="1" style="1" min="11" max="11"/>
+    <col width="10" customWidth="1" style="1" min="12" max="13"/>
+    <col width="11.8888888888889" customWidth="1" style="1" min="14" max="14"/>
+    <col width="10" customWidth="1" style="1" min="15" max="15"/>
+    <col width="6.66666666666667" customWidth="1" style="1" min="16" max="16"/>
+    <col width="10" customWidth="1" style="1" min="17" max="22"/>
+    <col width="7.36111111111111" customWidth="1" style="1" min="23" max="23"/>
+    <col width="10" customWidth="1" style="1" min="24" max="27"/>
+    <col width="6.38888888888889" customWidth="1" style="1" min="28" max="28"/>
+    <col width="10" customWidth="1" style="1" min="29" max="33"/>
+    <col width="7.36111111111111" customWidth="1" style="1" min="34" max="34"/>
+    <col width="10" customWidth="1" style="1" min="35" max="38"/>
+    <col width="6.94444444444444" customWidth="1" style="1" min="39" max="39"/>
+    <col width="14.4444444444444" customWidth="1" style="1" min="40" max="40"/>
+    <col width="10" customWidth="1" style="1" min="41" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="8">
-      <c r="A1" s="8" t="inlineStr">
+    <row r="1" customFormat="1" s="1">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>取引先マスタ再鑑結果</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="25" customFormat="1" customHeight="1" s="8">
+    <row r="2" ht="25" customFormat="1" customHeight="1" s="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>再鑑日付</t>
@@ -1154,7 +1151,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customFormat="1" customHeight="1" s="8">
+    <row r="3" ht="15" customFormat="1" customHeight="1" s="1">
       <c r="A3" s="3" t="n">
         <v>44760</v>
       </c>
@@ -1165,14 +1162,14 @@
       </c>
     </row>
     <row r="4"/>
-    <row r="5" customFormat="1" s="8">
-      <c r="A5" s="8" t="inlineStr">
+    <row r="5" customFormat="1" s="1">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>①申請書とSAP取引先マスタの比較</t>
         </is>
       </c>
     </row>
-    <row r="6" customFormat="1" s="8">
+    <row r="6" customFormat="1" s="1">
       <c r="A6" s="5" t="n"/>
       <c r="B6" s="5" t="inlineStr">
         <is>
@@ -1192,7 +1189,7 @@
       <c r="M6" s="6" t="n"/>
       <c r="N6" s="6" t="n"/>
       <c r="O6" s="6" t="n"/>
-      <c r="P6" s="10" t="n"/>
+      <c r="P6" s="9" t="n"/>
       <c r="Q6" s="5" t="inlineStr">
         <is>
           <t>SAP仕入先一覧</t>
@@ -1208,7 +1205,7 @@
       <c r="Y6" s="6" t="n"/>
       <c r="Z6" s="6" t="n"/>
       <c r="AA6" s="6" t="n"/>
-      <c r="AB6" s="10" t="n"/>
+      <c r="AB6" s="9" t="n"/>
       <c r="AC6" s="5" t="inlineStr">
         <is>
           <t>相違箇所自動判定</t>
@@ -1224,7 +1221,7 @@
       <c r="AK6" s="6" t="n"/>
       <c r="AL6" s="6" t="n"/>
       <c r="AM6" s="6" t="n"/>
-      <c r="AN6" s="10" t="n"/>
+      <c r="AN6" s="9" t="n"/>
       <c r="AO6" s="5" t="inlineStr">
         <is>
           <t>再鑑者コメント</t>
@@ -1232,7 +1229,7 @@
       </c>
       <c r="AP6" s="5" t="n"/>
     </row>
-    <row r="7" customFormat="1" s="8">
+    <row r="7" customFormat="1" s="1">
       <c r="A7" s="5" t="inlineStr">
         <is>
           <t>申請番号</t>
@@ -1440,7 +1437,7 @@
       </c>
       <c r="AP7" s="5" t="n"/>
     </row>
-    <row r="8" customFormat="1" s="8">
+    <row r="8" customFormat="1" s="1">
       <c r="A8" s="7" t="n">
         <v>1</v>
       </c>
@@ -1459,7 +1456,7 @@
       <c r="J8" s="7" t="n"/>
       <c r="K8" s="7" t="n"/>
       <c r="L8" s="7" t="n"/>
-      <c r="M8" s="11" t="inlineStr">
+      <c r="M8" s="10" t="inlineStr">
         <is>
           <t>02</t>
         </is>
@@ -1479,7 +1476,7 @@
       <c r="V8" s="7" t="n"/>
       <c r="W8" s="7" t="n"/>
       <c r="X8" s="7" t="n"/>
-      <c r="Y8" s="11" t="inlineStr">
+      <c r="Y8" s="10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -1511,9 +1508,9 @@
           <t>株式会社₌(株);2₌02</t>
         </is>
       </c>
-      <c r="AP8" s="10" t="n"/>
-    </row>
-    <row r="9" customFormat="1" s="8">
+      <c r="AP8" s="9" t="n"/>
+    </row>
+    <row r="9" customFormat="1" s="1">
       <c r="A9" s="7" t="n">
         <v>2</v>
       </c>
@@ -1528,7 +1525,7 @@
       <c r="J9" s="7" t="n"/>
       <c r="K9" s="7" t="n"/>
       <c r="L9" s="7" t="n"/>
-      <c r="M9" s="11" t="n">
+      <c r="M9" s="10" t="n">
         <v>1</v>
       </c>
       <c r="N9" s="7" t="n"/>
@@ -1542,7 +1539,7 @@
       <c r="V9" s="7" t="n"/>
       <c r="W9" s="7" t="n"/>
       <c r="X9" s="7" t="n"/>
-      <c r="Y9" s="11" t="inlineStr">
+      <c r="Y9" s="10" t="inlineStr">
         <is>
           <t>01</t>
         </is>
@@ -1571,9 +1568,9 @@
           <t>01₌1</t>
         </is>
       </c>
-      <c r="AP9" s="10" t="n"/>
-    </row>
-    <row r="10" customFormat="1" s="8">
+      <c r="AP9" s="9" t="n"/>
+    </row>
+    <row r="10" customFormat="1" s="1">
       <c r="A10" s="7" t="n">
         <v>3</v>
       </c>
@@ -1633,9 +1630,9 @@
           <t>スペースがある</t>
         </is>
       </c>
-      <c r="AP10" s="10" t="n"/>
-    </row>
-    <row r="11" customFormat="1" s="8">
+      <c r="AP10" s="9" t="n"/>
+    </row>
+    <row r="11" customFormat="1" s="1">
       <c r="A11" s="7" t="n">
         <v>4</v>
       </c>
@@ -1651,7 +1648,7 @@
       <c r="K11" s="7" t="n"/>
       <c r="L11" s="7" t="n"/>
       <c r="M11" s="7" t="n"/>
-      <c r="N11" s="11" t="inlineStr">
+      <c r="N11" s="10" t="inlineStr">
         <is>
           <t>058897</t>
         </is>
@@ -1693,9 +1690,9 @@
           <t>58897₌058897</t>
         </is>
       </c>
-      <c r="AP11" s="10" t="n"/>
-    </row>
-    <row r="12" customFormat="1" s="8">
+      <c r="AP11" s="9" t="n"/>
+    </row>
+    <row r="12" customFormat="1" s="1">
       <c r="A12" s="7" t="n"/>
       <c r="B12" s="7" t="n"/>
       <c r="C12" s="7" t="n"/>
@@ -1737,9 +1734,9 @@
       <c r="AM12" s="7" t="n"/>
       <c r="AN12" s="7" t="n"/>
       <c r="AO12" s="4" t="n"/>
-      <c r="AP12" s="10" t="n"/>
-    </row>
-    <row r="13" customFormat="1" s="8">
+      <c r="AP12" s="9" t="n"/>
+    </row>
+    <row r="13" customFormat="1" s="1">
       <c r="A13" s="7" t="n"/>
       <c r="B13" s="7" t="n"/>
       <c r="C13" s="7" t="n"/>
@@ -1781,9 +1778,9 @@
       <c r="AM13" s="7" t="n"/>
       <c r="AN13" s="7" t="n"/>
       <c r="AO13" s="4" t="n"/>
-      <c r="AP13" s="10" t="n"/>
-    </row>
-    <row r="14" customFormat="1" s="8">
+      <c r="AP13" s="9" t="n"/>
+    </row>
+    <row r="14" customFormat="1" s="1">
       <c r="A14" s="7" t="n"/>
       <c r="B14" s="7" t="n"/>
       <c r="C14" s="7" t="n"/>
@@ -1825,9 +1822,9 @@
       <c r="AM14" s="7" t="n"/>
       <c r="AN14" s="7" t="n"/>
       <c r="AO14" s="4" t="n"/>
-      <c r="AP14" s="10" t="n"/>
-    </row>
-    <row r="15" customFormat="1" s="8">
+      <c r="AP14" s="9" t="n"/>
+    </row>
+    <row r="15" customFormat="1" s="1">
       <c r="A15" s="7" t="n"/>
       <c r="B15" s="7" t="n"/>
       <c r="C15" s="7" t="n"/>
@@ -1869,9 +1866,9 @@
       <c r="AM15" s="7" t="n"/>
       <c r="AN15" s="7" t="n"/>
       <c r="AO15" s="4" t="n"/>
-      <c r="AP15" s="10" t="n"/>
-    </row>
-    <row r="16" customFormat="1" s="8">
+      <c r="AP15" s="9" t="n"/>
+    </row>
+    <row r="16" customFormat="1" s="1">
       <c r="A16" s="7" t="n"/>
       <c r="B16" s="7" t="n"/>
       <c r="C16" s="7" t="n"/>
@@ -1913,9 +1910,9 @@
       <c r="AM16" s="7" t="n"/>
       <c r="AN16" s="7" t="n"/>
       <c r="AO16" s="4" t="n"/>
-      <c r="AP16" s="10" t="n"/>
-    </row>
-    <row r="17" customFormat="1" s="8">
+      <c r="AP16" s="9" t="n"/>
+    </row>
+    <row r="17" customFormat="1" s="1">
       <c r="A17" s="7" t="n"/>
       <c r="B17" s="7" t="n"/>
       <c r="C17" s="7" t="n"/>
@@ -1957,9 +1954,9 @@
       <c r="AM17" s="7" t="n"/>
       <c r="AN17" s="7" t="n"/>
       <c r="AO17" s="4" t="n"/>
-      <c r="AP17" s="10" t="n"/>
-    </row>
-    <row r="18" customFormat="1" s="8">
+      <c r="AP17" s="9" t="n"/>
+    </row>
+    <row r="18" customFormat="1" s="1">
       <c r="A18" s="7" t="n"/>
       <c r="B18" s="7" t="n"/>
       <c r="C18" s="7" t="n"/>
@@ -2001,9 +1998,9 @@
       <c r="AM18" s="7" t="n"/>
       <c r="AN18" s="7" t="n"/>
       <c r="AO18" s="4" t="n"/>
-      <c r="AP18" s="10" t="n"/>
-    </row>
-    <row r="19" customFormat="1" s="8">
+      <c r="AP18" s="9" t="n"/>
+    </row>
+    <row r="19" customFormat="1" s="1">
       <c r="A19" s="7" t="n"/>
       <c r="B19" s="7" t="n"/>
       <c r="C19" s="7" t="n"/>
@@ -2045,9 +2042,9 @@
       <c r="AM19" s="7" t="n"/>
       <c r="AN19" s="7" t="n"/>
       <c r="AO19" s="4" t="n"/>
-      <c r="AP19" s="10" t="n"/>
-    </row>
-    <row r="20" customFormat="1" s="8">
+      <c r="AP19" s="9" t="n"/>
+    </row>
+    <row r="20" customFormat="1" s="1">
       <c r="A20" s="7" t="n"/>
       <c r="B20" s="7" t="n"/>
       <c r="C20" s="7" t="n"/>
@@ -2089,7 +2086,7 @@
       <c r="AM20" s="7" t="n"/>
       <c r="AN20" s="7" t="n"/>
       <c r="AO20" s="4" t="n"/>
-      <c r="AP20" s="10" t="n"/>
+      <c r="AP20" s="9" t="n"/>
     </row>
     <row r="21"/>
     <row r="22"/>
@@ -2100,14 +2097,14 @@
     <row r="27"/>
     <row r="28"/>
     <row r="29"/>
-    <row r="30" customFormat="1" s="8">
-      <c r="A30" s="8" t="inlineStr">
+    <row r="30" customFormat="1" s="1">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>②本日が更新日の取引先の申請件数</t>
         </is>
       </c>
     </row>
-    <row r="31" customFormat="1" s="8">
+    <row r="31" customFormat="1" s="1">
       <c r="A31" s="5" t="inlineStr">
         <is>
           <t>仕入先</t>
@@ -2120,102 +2117,96 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="8" t="n">
+      <c r="A32" s="1" t="n">
         <v>1133782400</v>
       </c>
-      <c r="B32" s="9" t="n">
+      <c r="B32" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C32" s="8" t="inlineStr">
+      <c r="C32" s="0" t="inlineStr">
         <is>
           <t>保留の件を処理したケース</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="8" t="n">
+      <c r="A33" s="1" t="n">
         <v>1134114500</v>
       </c>
-      <c r="B33" s="9" t="n">
+      <c r="B33" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="C33" s="8" t="inlineStr">
-        <is>
-          <t>当日で、同じ取引先コードを不同申請書で申請された</t>
-        </is>
-      </c>
     </row>
     <row r="34">
-      <c r="A34" s="8" t="n">
+      <c r="A34" s="1" t="n">
         <v>1101506600</v>
       </c>
-      <c r="B34" s="9" t="n">
+      <c r="B34" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C34" s="8" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="8" t="n">
+      <c r="A35" s="1" t="n">
         <v>1101506601</v>
       </c>
-      <c r="B35" s="9" t="n">
+      <c r="B35" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C35" s="8" t="inlineStr">
+      <c r="C35" s="0" t="inlineStr">
         <is>
           <t>申請書通りに取引先名を変更する場合、枝番の取引先名も変更した</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="8" t="n">
+      <c r="A36" s="1" t="n">
         <v>1101506602</v>
       </c>
-      <c r="B36" s="9" t="n">
+      <c r="B36" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C36" s="8" t="inlineStr">
+      <c r="C36" s="0" t="inlineStr">
         <is>
           <t>申請書通りに取引先名を変更する場合、枝番の取引先名も変更した</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="8" t="n">
+      <c r="A37" s="1" t="n">
         <v>1133887700</v>
       </c>
-      <c r="B37" s="9" t="n">
+      <c r="B37" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C37" s="8" t="inlineStr">
+      <c r="C37" s="0" t="inlineStr">
         <is>
           <t>変更の指示に基づき処理したケース（依頼元：経理課　山中さん）</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="8" t="n">
+      <c r="A38" s="1" t="n">
         <v>1200686600</v>
       </c>
-      <c r="B38" s="9" t="n">
+      <c r="B38" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C38" s="8" t="inlineStr">
-        <is>
-          <t>申請書依頼の指示に基づき処理したケース（一回目処理しますが、チェックする時、問題あり否認します）</t>
+      <c r="C38" s="0" t="inlineStr">
+        <is>
+          <t>変更の指示に基づき処理したケース（依頼元：経理課　山中さん）</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="8" t="n">
+      <c r="A39" s="1" t="n">
         <v>1200795700</v>
       </c>
-      <c r="B39" s="9" t="n">
+      <c r="B39" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C39" s="8" t="inlineStr">
-        <is>
-          <t>申請書依頼の指示に基づき処理したケース（一回目処理しますが、チェックする時、問題あり保留します）</t>
+      <c r="C39" s="0" t="inlineStr">
+        <is>
+          <t>変更の指示に基づき処理したケース（依頼元：経理課　山中さん）</t>
         </is>
       </c>
     </row>

--- a/工作簿1.xlsx
+++ b/工作簿1.xlsx
@@ -689,7 +689,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -717,6 +717,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1106,8 +1109,8 @@
   </sheetPr>
   <dimension ref="A1:AP40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AO11" sqref="AO11:AP11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10" defaultRowHeight="15.6" outlineLevelCol="0"/>
@@ -1445,69 +1448,40 @@
       <c r="C8" s="7" t="n"/>
       <c r="D8" s="7" t="n"/>
       <c r="E8" s="7" t="n"/>
-      <c r="F8" s="7" t="inlineStr">
-        <is>
-          <t>株式会社A</t>
-        </is>
-      </c>
+      <c r="F8" s="7" t="n"/>
       <c r="G8" s="7" t="n"/>
       <c r="H8" s="7" t="n"/>
       <c r="I8" s="7" t="n"/>
       <c r="J8" s="7" t="n"/>
       <c r="K8" s="7" t="n"/>
       <c r="L8" s="7" t="n"/>
-      <c r="M8" s="10" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
-      </c>
       <c r="N8" s="7" t="n"/>
       <c r="O8" s="7" t="n"/>
       <c r="P8" s="7" t="n"/>
       <c r="Q8" s="7" t="n"/>
-      <c r="R8" s="7" t="inlineStr">
-        <is>
-          <t>(株)A</t>
-        </is>
-      </c>
+      <c r="R8" s="7" t="n"/>
       <c r="S8" s="7" t="n"/>
       <c r="T8" s="7" t="n"/>
       <c r="U8" s="7" t="n"/>
       <c r="V8" s="7" t="n"/>
       <c r="W8" s="7" t="n"/>
       <c r="X8" s="7" t="n"/>
-      <c r="Y8" s="10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="Y8" s="10" t="n"/>
       <c r="Z8" s="7" t="n"/>
       <c r="AA8" s="7" t="n"/>
       <c r="AB8" s="7" t="n"/>
-      <c r="AC8" s="7" t="inlineStr">
-        <is>
-          <t>×</t>
-        </is>
-      </c>
+      <c r="AC8" s="7" t="n"/>
       <c r="AD8" s="7" t="n"/>
       <c r="AE8" s="7" t="n"/>
       <c r="AF8" s="7" t="n"/>
       <c r="AG8" s="7" t="n"/>
       <c r="AH8" s="7" t="n"/>
-      <c r="AJ8" s="7" t="inlineStr">
-        <is>
-          <t>×</t>
-        </is>
-      </c>
+      <c r="AJ8" s="7" t="n"/>
       <c r="AK8" s="7" t="n"/>
       <c r="AL8" s="7" t="n"/>
       <c r="AM8" s="7" t="n"/>
       <c r="AN8" s="7" t="n"/>
-      <c r="AO8" s="4" t="inlineStr">
-        <is>
-          <t>株式会社₌(株);2₌02</t>
-        </is>
-      </c>
+      <c r="AO8" s="4" t="inlineStr"/>
       <c r="AP8" s="9" t="n"/>
     </row>
     <row r="9" customFormat="1" s="1">
@@ -1525,9 +1499,7 @@
       <c r="J9" s="7" t="n"/>
       <c r="K9" s="7" t="n"/>
       <c r="L9" s="7" t="n"/>
-      <c r="M9" s="10" t="n">
-        <v>1</v>
-      </c>
+      <c r="M9" s="10" t="n"/>
       <c r="N9" s="7" t="n"/>
       <c r="O9" s="7" t="n"/>
       <c r="P9" s="7" t="n"/>
@@ -1539,11 +1511,7 @@
       <c r="V9" s="7" t="n"/>
       <c r="W9" s="7" t="n"/>
       <c r="X9" s="7" t="n"/>
-      <c r="Y9" s="10" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
+      <c r="Y9" s="10" t="n"/>
       <c r="Z9" s="7" t="n"/>
       <c r="AA9" s="7" t="n"/>
       <c r="AB9" s="7" t="n"/>
@@ -1554,20 +1522,12 @@
       <c r="AG9" s="7" t="n"/>
       <c r="AH9" s="7" t="n"/>
       <c r="AI9" s="7" t="n"/>
-      <c r="AJ9" s="7" t="inlineStr">
-        <is>
-          <t>×</t>
-        </is>
-      </c>
+      <c r="AJ9" s="7" t="n"/>
       <c r="AK9" s="7" t="n"/>
       <c r="AL9" s="7" t="n"/>
       <c r="AM9" s="7" t="n"/>
       <c r="AN9" s="7" t="n"/>
-      <c r="AO9" s="4" t="inlineStr">
-        <is>
-          <t>01₌1</t>
-        </is>
-      </c>
+      <c r="AO9" s="4" t="inlineStr"/>
       <c r="AP9" s="9" t="n"/>
     </row>
     <row r="10" customFormat="1" s="1">
@@ -1583,11 +1543,7 @@
       <c r="H10" s="7" t="n"/>
       <c r="I10" s="7" t="n"/>
       <c r="J10" s="7" t="n"/>
-      <c r="K10" s="7" t="inlineStr">
-        <is>
-          <t>町1-2-3</t>
-        </is>
-      </c>
+      <c r="K10" s="7" t="n"/>
       <c r="L10" s="7" t="n"/>
       <c r="M10" s="7" t="n"/>
       <c r="N10" s="7" t="n"/>
@@ -1599,11 +1555,7 @@
       <c r="T10" s="7" t="n"/>
       <c r="U10" s="7" t="n"/>
       <c r="V10" s="7" t="n"/>
-      <c r="W10" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">　町1-2-3</t>
-        </is>
-      </c>
+      <c r="W10" s="7" t="n"/>
       <c r="X10" s="7" t="n"/>
       <c r="Y10" s="7" t="n"/>
       <c r="Z10" s="7" t="n"/>
@@ -1614,22 +1566,14 @@
       <c r="AE10" s="7" t="n"/>
       <c r="AF10" s="7" t="n"/>
       <c r="AG10" s="7" t="n"/>
-      <c r="AH10" s="7" t="inlineStr">
-        <is>
-          <t>×</t>
-        </is>
-      </c>
+      <c r="AH10" s="7" t="n"/>
       <c r="AI10" s="7" t="n"/>
       <c r="AJ10" s="7" t="n"/>
       <c r="AK10" s="7" t="n"/>
       <c r="AL10" s="7" t="n"/>
       <c r="AM10" s="7" t="n"/>
       <c r="AN10" s="7" t="n"/>
-      <c r="AO10" s="4" t="inlineStr">
-        <is>
-          <t>スペースがある</t>
-        </is>
-      </c>
+      <c r="AO10" s="4" t="inlineStr"/>
       <c r="AP10" s="9" t="n"/>
     </row>
     <row r="11" customFormat="1" s="1">
@@ -1648,11 +1592,7 @@
       <c r="K11" s="7" t="n"/>
       <c r="L11" s="7" t="n"/>
       <c r="M11" s="7" t="n"/>
-      <c r="N11" s="10" t="inlineStr">
-        <is>
-          <t>058897</t>
-        </is>
-      </c>
+      <c r="N11" s="10" t="n"/>
       <c r="O11" s="7" t="n"/>
       <c r="P11" s="7" t="n"/>
       <c r="Q11" s="7" t="n"/>
@@ -1664,9 +1604,7 @@
       <c r="W11" s="7" t="n"/>
       <c r="X11" s="7" t="n"/>
       <c r="Y11" s="7" t="n"/>
-      <c r="Z11" s="7" t="n">
-        <v>58897</v>
-      </c>
+      <c r="Z11" s="7" t="n"/>
       <c r="AA11" s="7" t="n"/>
       <c r="AB11" s="7" t="n"/>
       <c r="AC11" s="7" t="n"/>
@@ -1677,23 +1615,17 @@
       <c r="AH11" s="7" t="n"/>
       <c r="AI11" s="7" t="n"/>
       <c r="AJ11" s="7" t="n"/>
-      <c r="AK11" s="7" t="inlineStr">
-        <is>
-          <t>×</t>
-        </is>
-      </c>
+      <c r="AK11" s="7" t="n"/>
       <c r="AL11" s="7" t="n"/>
       <c r="AM11" s="7" t="n"/>
       <c r="AN11" s="7" t="n"/>
-      <c r="AO11" s="4" t="inlineStr">
-        <is>
-          <t>58897₌058897</t>
-        </is>
-      </c>
+      <c r="AO11" s="4" t="inlineStr"/>
       <c r="AP11" s="9" t="n"/>
     </row>
     <row r="12" customFormat="1" s="1">
-      <c r="A12" s="7" t="n"/>
+      <c r="A12" s="7" t="n">
+        <v>5</v>
+      </c>
       <c r="B12" s="7" t="n"/>
       <c r="C12" s="7" t="n"/>
       <c r="D12" s="7" t="n"/>
@@ -1705,8 +1637,16 @@
       <c r="J12" s="7" t="n"/>
       <c r="K12" s="7" t="n"/>
       <c r="L12" s="7" t="n"/>
-      <c r="M12" s="7" t="n"/>
-      <c r="N12" s="7" t="n"/>
+      <c r="M12" s="10" t="inlineStr">
+        <is>
+          <t>２</t>
+        </is>
+      </c>
+      <c r="N12" s="11" t="inlineStr">
+        <is>
+          <t>088997</t>
+        </is>
+      </c>
       <c r="O12" s="7" t="n"/>
       <c r="P12" s="7" t="n"/>
       <c r="Q12" s="7" t="n"/>
@@ -1717,8 +1657,14 @@
       <c r="V12" s="7" t="n"/>
       <c r="W12" s="7" t="n"/>
       <c r="X12" s="7" t="n"/>
-      <c r="Y12" s="7" t="n"/>
-      <c r="Z12" s="7" t="n"/>
+      <c r="Y12" s="10" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="Z12" s="7" t="n">
+        <v>88997</v>
+      </c>
       <c r="AA12" s="7" t="n"/>
       <c r="AB12" s="7" t="n"/>
       <c r="AC12" s="7" t="n"/>
@@ -1728,60 +1674,102 @@
       <c r="AG12" s="7" t="n"/>
       <c r="AH12" s="7" t="n"/>
       <c r="AI12" s="7" t="n"/>
-      <c r="AJ12" s="7" t="n"/>
-      <c r="AK12" s="7" t="n"/>
+      <c r="AJ12" s="7" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AK12" s="7" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="AL12" s="7" t="n"/>
       <c r="AM12" s="7" t="n"/>
       <c r="AN12" s="7" t="n"/>
-      <c r="AO12" s="4" t="n"/>
+      <c r="AO12" s="4" t="inlineStr">
+        <is>
+          <t>02₌２;88997₌088997</t>
+        </is>
+      </c>
       <c r="AP12" s="9" t="n"/>
     </row>
     <row r="13" customFormat="1" s="1">
-      <c r="A13" s="7" t="n"/>
+      <c r="A13" s="7" t="n">
+        <v>6</v>
+      </c>
       <c r="B13" s="7" t="n"/>
       <c r="C13" s="7" t="n"/>
       <c r="D13" s="7" t="n"/>
       <c r="E13" s="7" t="n"/>
-      <c r="F13" s="7" t="n"/>
+      <c r="F13" s="7" t="inlineStr">
+        <is>
+          <t>株式会社大和証券</t>
+        </is>
+      </c>
       <c r="G13" s="7" t="n"/>
       <c r="H13" s="7" t="n"/>
       <c r="I13" s="7" t="n"/>
       <c r="J13" s="7" t="n"/>
       <c r="K13" s="7" t="n"/>
       <c r="L13" s="7" t="n"/>
-      <c r="M13" s="7" t="n"/>
+      <c r="M13" s="10" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
       <c r="N13" s="7" t="n"/>
       <c r="O13" s="7" t="n"/>
       <c r="P13" s="7" t="n"/>
       <c r="Q13" s="7" t="n"/>
-      <c r="R13" s="7" t="n"/>
+      <c r="R13" s="7" t="inlineStr">
+        <is>
+          <t>(株)大和証券</t>
+        </is>
+      </c>
       <c r="S13" s="7" t="n"/>
       <c r="T13" s="7" t="n"/>
       <c r="U13" s="7" t="n"/>
       <c r="V13" s="7" t="n"/>
       <c r="W13" s="7" t="n"/>
       <c r="X13" s="7" t="n"/>
-      <c r="Y13" s="7" t="n"/>
+      <c r="Y13" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="Z13" s="7" t="n"/>
       <c r="AA13" s="7" t="n"/>
       <c r="AB13" s="7" t="n"/>
-      <c r="AC13" s="7" t="n"/>
+      <c r="AC13" s="7" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="AD13" s="7" t="n"/>
       <c r="AE13" s="7" t="n"/>
       <c r="AF13" s="7" t="n"/>
       <c r="AG13" s="7" t="n"/>
       <c r="AH13" s="7" t="n"/>
       <c r="AI13" s="7" t="n"/>
-      <c r="AJ13" s="7" t="n"/>
+      <c r="AJ13" s="7" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="AK13" s="7" t="n"/>
       <c r="AL13" s="7" t="n"/>
       <c r="AM13" s="7" t="n"/>
       <c r="AN13" s="7" t="n"/>
-      <c r="AO13" s="4" t="n"/>
+      <c r="AO13" s="4" t="inlineStr">
+        <is>
+          <t>株式会社₌(株);1₌01</t>
+        </is>
+      </c>
       <c r="AP13" s="9" t="n"/>
     </row>
     <row r="14" customFormat="1" s="1">
-      <c r="A14" s="7" t="n"/>
+      <c r="A14" s="7" t="n">
+        <v>7</v>
+      </c>
       <c r="B14" s="7" t="n"/>
       <c r="C14" s="7" t="n"/>
       <c r="D14" s="7" t="n"/>
@@ -1821,11 +1809,13 @@
       <c r="AL14" s="7" t="n"/>
       <c r="AM14" s="7" t="n"/>
       <c r="AN14" s="7" t="n"/>
-      <c r="AO14" s="4" t="n"/>
+      <c r="AO14" s="4" t="inlineStr"/>
       <c r="AP14" s="9" t="n"/>
     </row>
     <row r="15" customFormat="1" s="1">
-      <c r="A15" s="7" t="n"/>
+      <c r="A15" s="7" t="n">
+        <v>8</v>
+      </c>
       <c r="B15" s="7" t="n"/>
       <c r="C15" s="7" t="n"/>
       <c r="D15" s="7" t="n"/>
@@ -1865,11 +1855,13 @@
       <c r="AL15" s="7" t="n"/>
       <c r="AM15" s="7" t="n"/>
       <c r="AN15" s="7" t="n"/>
-      <c r="AO15" s="4" t="n"/>
+      <c r="AO15" s="4" t="inlineStr"/>
       <c r="AP15" s="9" t="n"/>
     </row>
     <row r="16" customFormat="1" s="1">
-      <c r="A16" s="7" t="n"/>
+      <c r="A16" s="7" t="n">
+        <v>9</v>
+      </c>
       <c r="B16" s="7" t="n"/>
       <c r="C16" s="7" t="n"/>
       <c r="D16" s="7" t="n"/>
@@ -1909,7 +1901,7 @@
       <c r="AL16" s="7" t="n"/>
       <c r="AM16" s="7" t="n"/>
       <c r="AN16" s="7" t="n"/>
-      <c r="AO16" s="4" t="n"/>
+      <c r="AO16" s="4" t="inlineStr"/>
       <c r="AP16" s="9" t="n"/>
     </row>
     <row r="17" customFormat="1" s="1">
@@ -1937,7 +1929,7 @@
       <c r="V17" s="7" t="n"/>
       <c r="W17" s="7" t="n"/>
       <c r="X17" s="7" t="n"/>
-      <c r="Y17" s="7" t="n"/>
+      <c r="Y17" s="10" t="n"/>
       <c r="Z17" s="7" t="n"/>
       <c r="AA17" s="7" t="n"/>
       <c r="AB17" s="7" t="n"/>
@@ -2131,10 +2123,15 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>1134114500</v>
+        <v>1134114600</v>
       </c>
       <c r="B33" s="8" t="n">
         <v>2</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>申請書依頼の指示に基づき処理したケース（二回目処理しますが、チェックする時、問題あり否認します）</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -2193,7 +2190,7 @@
       </c>
       <c r="C38" s="0" t="inlineStr">
         <is>
-          <t>変更の指示に基づき処理したケース（依頼元：経理課　山中さん）</t>
+          <t>申請書依頼の指示に基づき処理したケース（二回目処理しますが、チェックする時、問題あり否認します）</t>
         </is>
       </c>
     </row>
@@ -2206,7 +2203,7 @@
       </c>
       <c r="C39" s="0" t="inlineStr">
         <is>
-          <t>変更の指示に基づき処理したケース（依頼元：経理課　山中さん）</t>
+          <t>申請書依頼の指示に基づき処理したケース（一回目処理しますが、チェックする時、問題あり否認します）</t>
         </is>
       </c>
     </row>
